--- a/biology/Médecine/Peroxyde_de_zinc/Peroxyde_de_zinc.xlsx
+++ b/biology/Médecine/Peroxyde_de_zinc/Peroxyde_de_zinc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le peroxyde de zinc est  un composé chimique constituée d’un atome de zinc et de deux atomes d'oxygène.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce corps est un agent oxydant. Il est produit artificiellement par réaction chimique.
 Il se présente sous forme d’une fine poudre blanche ou jaunâtre sans odeur et insipide (non comestible, irritant) 
@@ -546,7 +560,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet agent antiseptique est utilisé en pharmacie comme cicatrisant, et aseptisant contre les maladies de peau.
 Le peroxyde de zinc est un puissant agent de polymérisation dans l'industrie du caoutchouc, favorisant la concaténation des chaînes, lors de la vulcanisation du caoutchouc ou des mélanges polymères.
